--- a/Code/Results/Cases/Case_2_159/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_159/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.92782148833142</v>
+        <v>13.1020553966038</v>
       </c>
       <c r="C2">
-        <v>7.638387197303055</v>
+        <v>11.97891613822523</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.14991264569724</v>
+        <v>16.86610535988619</v>
       </c>
       <c r="F2">
-        <v>26.29807597754991</v>
+        <v>37.57566155749477</v>
       </c>
       <c r="G2">
-        <v>21.37780970999012</v>
+        <v>31.21283244510076</v>
       </c>
       <c r="H2">
-        <v>8.934965194079131</v>
+        <v>15.03816081369865</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.375393799889502</v>
+        <v>7.874477370322277</v>
       </c>
       <c r="K2">
-        <v>10.68517275051428</v>
+        <v>8.589507243371235</v>
       </c>
       <c r="L2">
-        <v>8.51096067611131</v>
+        <v>12.45215293674379</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.58072771270147</v>
+        <v>19.28880467906017</v>
       </c>
       <c r="O2">
-        <v>14.36653045399537</v>
+        <v>23.19134679964884</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.06397650289433</v>
+        <v>12.86603731740907</v>
       </c>
       <c r="C3">
-        <v>7.730138655609571</v>
+        <v>12.0126186248821</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.90835454856093</v>
+        <v>16.86445353970958</v>
       </c>
       <c r="F3">
-        <v>25.76455592922887</v>
+        <v>37.59597018204517</v>
       </c>
       <c r="G3">
-        <v>21.28699290267567</v>
+        <v>31.31377107261725</v>
       </c>
       <c r="H3">
-        <v>9.011777664714698</v>
+        <v>15.08333806467516</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.33799951156686</v>
+        <v>7.864912761074475</v>
       </c>
       <c r="K3">
-        <v>10.10375422972967</v>
+        <v>8.418696921009069</v>
       </c>
       <c r="L3">
-        <v>8.245990817335658</v>
+        <v>12.42957505037062</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.75131775164439</v>
+        <v>19.34239775978782</v>
       </c>
       <c r="O3">
-        <v>14.44530430655498</v>
+        <v>23.2690996495586</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.50628602847316</v>
+        <v>12.72097775379347</v>
       </c>
       <c r="C4">
-        <v>7.78835425315436</v>
+        <v>12.03438854475512</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.76272603539962</v>
+        <v>16.8661099469756</v>
       </c>
       <c r="F4">
-        <v>25.45026472754935</v>
+        <v>37.6165401934628</v>
       </c>
       <c r="G4">
-        <v>21.25289999854319</v>
+        <v>31.38369401309318</v>
       </c>
       <c r="H4">
-        <v>9.06332265935141</v>
+        <v>15.11304127174312</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.314886817052261</v>
+        <v>7.858973889705817</v>
       </c>
       <c r="K4">
-        <v>9.728521877334321</v>
+        <v>8.313054386460829</v>
       </c>
       <c r="L4">
-        <v>8.082187725929023</v>
+        <v>12.417455128145</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.85878697388549</v>
+        <v>19.37691414553237</v>
       </c>
       <c r="O4">
-        <v>14.50377205853771</v>
+        <v>23.32085908786378</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.27226864282716</v>
+        <v>12.66190613727701</v>
       </c>
       <c r="C5">
-        <v>7.812555085210709</v>
+        <v>12.04353140158601</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.70412770352186</v>
+        <v>16.8674583619831</v>
       </c>
       <c r="F5">
-        <v>25.32564012087398</v>
+        <v>37.62696028808472</v>
       </c>
       <c r="G5">
-        <v>21.24427288690577</v>
+        <v>31.41418054170913</v>
       </c>
       <c r="H5">
-        <v>9.085400183202639</v>
+        <v>15.12563991759136</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.305431609779558</v>
+        <v>7.856537323947144</v>
       </c>
       <c r="K5">
-        <v>9.571091646106055</v>
+        <v>8.269868043485086</v>
       </c>
       <c r="L5">
-        <v>8.015255167558438</v>
+        <v>12.41295814876736</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.9032792468353</v>
+        <v>19.39138580378537</v>
       </c>
       <c r="O5">
-        <v>14.53004570829416</v>
+        <v>23.3429615232065</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.23300605881554</v>
+        <v>12.65210212336976</v>
       </c>
       <c r="C6">
-        <v>7.816602593891867</v>
+        <v>12.04506598237294</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.69444462218141</v>
+        <v>16.86772298720618</v>
       </c>
       <c r="F6">
-        <v>25.30515775464171</v>
+        <v>37.62881360947173</v>
       </c>
       <c r="G6">
-        <v>21.24315287043225</v>
+        <v>31.4193629654603</v>
       </c>
       <c r="H6">
-        <v>9.089130090726998</v>
+        <v>15.12776178346603</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.303859419823495</v>
+        <v>7.856131747930248</v>
       </c>
       <c r="K6">
-        <v>9.544679752922166</v>
+        <v>8.262690429207126</v>
       </c>
       <c r="L6">
-        <v>8.004133083835132</v>
+        <v>12.41223822615766</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.9107096437532</v>
+        <v>19.39381336243606</v>
       </c>
       <c r="O6">
-        <v>14.53455360611549</v>
+        <v>23.34669260416739</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.50315717050789</v>
+        <v>12.72018082275552</v>
       </c>
       <c r="C7">
-        <v>7.788678694334618</v>
+        <v>12.03451074847277</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.76193264289714</v>
+        <v>16.86612540326587</v>
       </c>
       <c r="F7">
-        <v>25.44856988433567</v>
+        <v>37.61667247184617</v>
       </c>
       <c r="G7">
-        <v>21.25276257754104</v>
+        <v>31.38409710594647</v>
       </c>
       <c r="H7">
-        <v>9.063616099494308</v>
+        <v>15.11320917930933</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.314759446721906</v>
+        <v>7.858941095568658</v>
       </c>
       <c r="K7">
-        <v>9.726416919524882</v>
+        <v>8.312472436415595</v>
       </c>
       <c r="L7">
-        <v>8.081285651069123</v>
+        <v>12.41739268604309</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.85938417141649</v>
+        <v>19.37710767023619</v>
       </c>
       <c r="O7">
-        <v>14.50411660407785</v>
+        <v>23.32115308012051</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.63568628672873</v>
+        <v>13.02075217010212</v>
       </c>
       <c r="C8">
-        <v>7.669635872189592</v>
+        <v>11.99031379197572</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.06610749306678</v>
+        <v>16.86498271507065</v>
       </c>
       <c r="F8">
-        <v>26.11142780724541</v>
+        <v>37.58098342087379</v>
       </c>
       <c r="G8">
-        <v>21.34189212792934</v>
+        <v>31.24598346491044</v>
       </c>
       <c r="H8">
-        <v>8.960522531206619</v>
+        <v>15.05333052377948</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.362532931528849</v>
+        <v>7.871193350128373</v>
       </c>
       <c r="K8">
-        <v>10.48851991512763</v>
+        <v>8.53080358147357</v>
       </c>
       <c r="L8">
-        <v>8.419886245519619</v>
+        <v>12.44400862405434</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.63898875709473</v>
+        <v>19.30695007772381</v>
       </c>
       <c r="O8">
-        <v>14.39153912722092</v>
+        <v>23.21732154893299</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.76494267214194</v>
+        <v>13.60571129122859</v>
       </c>
       <c r="C9">
-        <v>7.450883685460284</v>
+        <v>11.91215027848029</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.68086372945179</v>
+        <v>16.88384101783797</v>
       </c>
       <c r="F9">
-        <v>27.51158253686232</v>
+        <v>37.57520439235497</v>
       </c>
       <c r="G9">
-        <v>21.69616021336118</v>
+        <v>31.03843850543999</v>
       </c>
       <c r="H9">
-        <v>8.79452598163847</v>
+        <v>14.95147402660877</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.454933165719993</v>
+        <v>7.894686454367025</v>
       </c>
       <c r="K9">
-        <v>11.83615821814396</v>
+        <v>8.950514606132087</v>
       </c>
       <c r="L9">
-        <v>9.071118140627856</v>
+        <v>12.50985886622655</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.22785413465714</v>
+        <v>19.18209522421619</v>
       </c>
       <c r="O9">
-        <v>14.25516431522781</v>
+        <v>23.04561966945879</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.18442754709099</v>
+        <v>14.02846349737075</v>
       </c>
       <c r="C10">
-        <v>7.298797770037885</v>
+        <v>11.85986062376526</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>12.13967542551177</v>
+        <v>16.91042278403707</v>
       </c>
       <c r="F10">
-        <v>28.59423041397349</v>
+        <v>37.60996086684302</v>
       </c>
       <c r="G10">
-        <v>22.07518446118574</v>
+        <v>30.92485876887776</v>
       </c>
       <c r="H10">
-        <v>8.696684223972838</v>
+        <v>14.88610203180116</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.521943320296437</v>
+        <v>7.911611057529091</v>
       </c>
       <c r="K10">
-        <v>12.73482465675767</v>
+        <v>9.250709035670729</v>
       </c>
       <c r="L10">
-        <v>9.537038434632702</v>
+        <v>12.56631629077256</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.9378064928778</v>
+        <v>19.09804921144042</v>
       </c>
       <c r="O10">
-        <v>14.21239739421401</v>
+        <v>22.93895579108613</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.79517762162121</v>
+        <v>14.21840430683613</v>
       </c>
       <c r="C11">
-        <v>7.231411747307131</v>
+        <v>11.83717780861062</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>12.34916384785744</v>
+        <v>16.9252444004071</v>
       </c>
       <c r="F11">
-        <v>29.09694172478789</v>
+        <v>37.63419185010999</v>
       </c>
       <c r="G11">
-        <v>22.27508170630397</v>
+        <v>30.88169628948508</v>
       </c>
       <c r="H11">
-        <v>8.657900468823755</v>
+        <v>14.85841160752738</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.552218442526162</v>
+        <v>7.919235312133297</v>
       </c>
       <c r="K11">
-        <v>13.12360004842315</v>
+        <v>9.384910755366633</v>
       </c>
       <c r="L11">
-        <v>9.745425970453702</v>
+        <v>12.59369562545737</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.80827868125141</v>
+        <v>19.06146789716806</v>
       </c>
       <c r="O11">
-        <v>14.20673753361689</v>
+        <v>22.89466931959242</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.02147295533441</v>
+        <v>14.28992188930054</v>
       </c>
       <c r="C12">
-        <v>7.206147166417769</v>
+        <v>11.82874639930071</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>12.42854193824938</v>
+        <v>16.93124601754108</v>
       </c>
       <c r="F12">
-        <v>29.28865024223749</v>
+        <v>37.64457234323851</v>
       </c>
       <c r="G12">
-        <v>22.35484462715932</v>
+        <v>30.86657915888732</v>
       </c>
       <c r="H12">
-        <v>8.644081246956761</v>
+        <v>14.84822002338145</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.563651239293786</v>
+        <v>7.922111427024327</v>
       </c>
       <c r="K12">
-        <v>13.26793208598737</v>
+        <v>9.435344745461778</v>
       </c>
       <c r="L12">
-        <v>9.823764532475538</v>
+        <v>12.60430201924054</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.75956193872864</v>
+        <v>19.0478518865155</v>
       </c>
       <c r="O12">
-        <v>14.20668934182117</v>
+        <v>22.87850882413962</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.97295703229404</v>
+        <v>14.27453852606482</v>
       </c>
       <c r="C13">
-        <v>7.21157718242792</v>
+        <v>11.83055523415614</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>12.41144518293616</v>
+        <v>16.92993622005693</v>
       </c>
       <c r="F13">
-        <v>29.24730458572693</v>
+        <v>37.64228324412127</v>
       </c>
       <c r="G13">
-        <v>22.33748374409693</v>
+        <v>30.86978024063549</v>
       </c>
       <c r="H13">
-        <v>8.647018157440769</v>
+        <v>14.85040188387469</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.561190421419123</v>
+        <v>7.921492498813048</v>
       </c>
       <c r="K13">
-        <v>13.23697613598307</v>
+        <v>9.424500723489434</v>
       </c>
       <c r="L13">
-        <v>9.806919307117846</v>
+        <v>12.60200722893517</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.77003940821515</v>
+        <v>19.05077383311512</v>
       </c>
       <c r="O13">
-        <v>14.20660475510486</v>
+        <v>22.88196214148125</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.81389465413609</v>
+        <v>14.22429667204786</v>
       </c>
       <c r="C14">
-        <v>7.229328176228638</v>
+        <v>11.83648098716469</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>12.35569367846943</v>
+        <v>16.92573038210654</v>
       </c>
       <c r="F14">
-        <v>29.11268748334101</v>
+        <v>37.6350217529119</v>
       </c>
       <c r="G14">
-        <v>22.28156175392028</v>
+        <v>30.88042796777149</v>
       </c>
       <c r="H14">
-        <v>8.656745908103288</v>
+        <v>14.85756724549053</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.553159671723416</v>
+        <v>7.919472154321309</v>
       </c>
       <c r="K14">
-        <v>13.13553224980507</v>
+        <v>9.389067966019324</v>
       </c>
       <c r="L14">
-        <v>9.751882742317926</v>
+        <v>12.59456347387411</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.80426414573756</v>
+        <v>19.06034296466055</v>
       </c>
       <c r="O14">
-        <v>14.20669093800018</v>
+        <v>22.89332755962658</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.71581692350594</v>
+        <v>14.1934668838276</v>
       </c>
       <c r="C15">
-        <v>7.240233957684541</v>
+        <v>11.84013124881861</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>12.32154894981502</v>
+        <v>16.9232047346193</v>
       </c>
       <c r="F15">
-        <v>29.03040187586506</v>
+        <v>37.63073057633108</v>
       </c>
       <c r="G15">
-        <v>22.24784060465194</v>
+        <v>30.88710999848353</v>
       </c>
       <c r="H15">
-        <v>8.662818744712862</v>
+        <v>14.86199453931926</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.548236420332745</v>
+        <v>7.918233191299727</v>
       </c>
       <c r="K15">
-        <v>13.0730186121829</v>
+        <v>9.367312882061048</v>
       </c>
       <c r="L15">
-        <v>9.718094921337212</v>
+        <v>12.59003484158472</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.82527065578047</v>
+        <v>19.0662351100019</v>
       </c>
       <c r="O15">
-        <v>14.20701989540323</v>
+        <v>22.90036864699037</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.14381374930963</v>
+        <v>14.01599681753669</v>
       </c>
       <c r="C16">
-        <v>7.303237322841888</v>
+        <v>11.86136515675519</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>12.1259950293466</v>
+        <v>16.90950878736424</v>
       </c>
       <c r="F16">
-        <v>28.56157160436521</v>
+        <v>37.60854625462562</v>
       </c>
       <c r="G16">
-        <v>22.06268380113339</v>
+        <v>30.92785108427379</v>
       </c>
       <c r="H16">
-        <v>8.699337743752379</v>
+        <v>14.88795284654005</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.519960425912215</v>
+        <v>7.91111126628358</v>
       </c>
       <c r="K16">
-        <v>12.70901331463333</v>
+        <v>9.241887170572683</v>
       </c>
       <c r="L16">
-        <v>9.523342743384188</v>
+        <v>12.5645606592986</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.94631880463959</v>
+        <v>19.10047303881956</v>
       </c>
       <c r="O16">
-        <v>14.21305435982658</v>
+        <v>22.94193531123967</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.78398258320693</v>
+        <v>13.90646790812417</v>
       </c>
       <c r="C17">
-        <v>7.342344579986301</v>
+        <v>11.87467375282711</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12.0061815580552</v>
+        <v>16.90180344399165</v>
       </c>
       <c r="F17">
-        <v>28.27648291481865</v>
+        <v>37.59708949492999</v>
       </c>
       <c r="G17">
-        <v>21.95622041943341</v>
+        <v>30.95502621516085</v>
       </c>
       <c r="H17">
-        <v>8.723237807433541</v>
+        <v>14.90440168002091</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.502559407441711</v>
+        <v>7.90672284332366</v>
       </c>
       <c r="K17">
-        <v>12.48056905975012</v>
+        <v>9.164304788162982</v>
       </c>
       <c r="L17">
-        <v>9.402910335317564</v>
+        <v>12.54936375312732</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.02118638714151</v>
+        <v>19.12189923324851</v>
       </c>
       <c r="O17">
-        <v>14.22036834253742</v>
+        <v>22.96852047493083</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.5737217530156</v>
+        <v>13.84325042069785</v>
       </c>
       <c r="C18">
-        <v>7.365007678170281</v>
+        <v>11.88243245995933</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>11.93734416735012</v>
+        <v>16.89762866924857</v>
       </c>
       <c r="F18">
-        <v>28.1134755545671</v>
+        <v>37.591292835138</v>
       </c>
       <c r="G18">
-        <v>21.89756590553137</v>
+        <v>30.97145697023096</v>
       </c>
       <c r="H18">
-        <v>8.737520551802181</v>
+        <v>14.91405536147981</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.492531316072987</v>
+        <v>7.904191711050674</v>
       </c>
       <c r="K18">
-        <v>12.34728842339648</v>
+        <v>9.119462066167737</v>
       </c>
       <c r="L18">
-        <v>9.333308679187517</v>
+        <v>12.5407829314641</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.06447659040208</v>
+        <v>19.13437853047352</v>
       </c>
       <c r="O18">
-        <v>14.225866845873</v>
+        <v>22.9842101743866</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.50196361187513</v>
+        <v>13.82181051793656</v>
       </c>
       <c r="C19">
-        <v>7.372710317534094</v>
+        <v>11.88507729987271</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>11.91405204483573</v>
+        <v>16.89625942732267</v>
       </c>
       <c r="F19">
-        <v>28.05845427120298</v>
+        <v>37.58946654607057</v>
       </c>
       <c r="G19">
-        <v>21.87814592406443</v>
+        <v>30.977157456723</v>
       </c>
       <c r="H19">
-        <v>8.742447211879863</v>
+        <v>14.91735704500529</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.48913268595959</v>
+        <v>7.903333514145981</v>
       </c>
       <c r="K19">
-        <v>12.30183840720001</v>
+        <v>9.104242865339019</v>
       </c>
       <c r="L19">
-        <v>9.309687702293159</v>
+        <v>12.53790526343276</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.07917357335154</v>
+        <v>19.13863054586296</v>
       </c>
       <c r="O19">
-        <v>14.22794702340245</v>
+        <v>22.9895908758499</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.82262795007482</v>
+        <v>13.91815065310693</v>
       </c>
       <c r="C20">
-        <v>7.338164028881511</v>
+        <v>11.87324627604948</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.01892848751626</v>
+        <v>16.90259710287861</v>
       </c>
       <c r="F20">
-        <v>28.30673182758331</v>
+        <v>37.59822705823544</v>
       </c>
       <c r="G20">
-        <v>21.96728568362287</v>
+        <v>30.95205051017253</v>
       </c>
       <c r="H20">
-        <v>8.720637813685322</v>
+        <v>14.90263072693361</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.50441380554705</v>
+        <v>7.907190727651743</v>
       </c>
       <c r="K20">
-        <v>12.50508256766</v>
+        <v>9.172586614690967</v>
       </c>
       <c r="L20">
-        <v>9.415765411316151</v>
+        <v>12.5509649657678</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.01319307784655</v>
+        <v>19.11960228988113</v>
       </c>
       <c r="O20">
-        <v>14.21945526873053</v>
+        <v>22.9656491778772</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.86074996781079</v>
+        <v>14.23906554257558</v>
       </c>
       <c r="C21">
-        <v>7.224107456844966</v>
+        <v>11.83473616494982</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>12.37206837542154</v>
+        <v>16.92695521079035</v>
       </c>
       <c r="F21">
-        <v>29.15219231329514</v>
+        <v>37.63712198572829</v>
       </c>
       <c r="G21">
-        <v>22.29787620344922</v>
+        <v>30.87726712298825</v>
       </c>
       <c r="H21">
-        <v>8.653864727686731</v>
+        <v>14.85545462326</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.555519372921204</v>
+        <v>7.920065879812934</v>
       </c>
       <c r="K21">
-        <v>13.16540720985119</v>
+        <v>9.399486236025654</v>
       </c>
       <c r="L21">
-        <v>9.768064321853444</v>
+        <v>12.59674345949117</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.79420260374324</v>
+        <v>19.05752586678686</v>
       </c>
       <c r="O21">
-        <v>14.20660787041725</v>
+        <v>22.88997270411489</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.51020396258342</v>
+        <v>14.44638978576598</v>
       </c>
       <c r="C22">
-        <v>7.151037124538282</v>
+        <v>11.81048868694463</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>12.60312829230362</v>
+        <v>16.94514016777044</v>
       </c>
       <c r="F22">
-        <v>29.71252317406934</v>
+        <v>37.66956072428206</v>
       </c>
       <c r="G22">
-        <v>22.53767954407556</v>
+        <v>30.83554879553051</v>
       </c>
       <c r="H22">
-        <v>8.615302590441818</v>
+        <v>14.82633689203727</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.588734052100807</v>
+        <v>7.928416148731217</v>
       </c>
       <c r="K22">
-        <v>13.58013038874551</v>
+        <v>9.545513136534296</v>
       </c>
       <c r="L22">
-        <v>9.994947707895033</v>
+        <v>12.62804938353793</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.6530112752336</v>
+        <v>19.01833362818649</v>
       </c>
       <c r="O22">
-        <v>14.2104755359049</v>
+        <v>22.84406865627592</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.16621733606426</v>
+        <v>14.33597914426016</v>
       </c>
       <c r="C23">
-        <v>7.189903313324097</v>
+        <v>11.8233459622882</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>12.47980238955225</v>
+        <v>16.93522844669732</v>
       </c>
       <c r="F23">
-        <v>29.41279218715938</v>
+        <v>37.65160761373691</v>
       </c>
       <c r="G23">
-        <v>22.40748544585723</v>
+        <v>30.85715842763381</v>
       </c>
       <c r="H23">
-        <v>8.635404026702416</v>
+        <v>14.84172077518021</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.571024328908477</v>
+        <v>7.92396543301874</v>
       </c>
       <c r="K23">
-        <v>13.3603264085367</v>
+        <v>9.467797593326791</v>
       </c>
       <c r="L23">
-        <v>9.874181767943343</v>
+        <v>12.61121580182077</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.7281960220436</v>
+        <v>19.0391254651228</v>
       </c>
       <c r="O23">
-        <v>14.20725201201976</v>
+        <v>22.86824298556821</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.80516693960291</v>
+        <v>13.91286965091431</v>
       </c>
       <c r="C24">
-        <v>7.340053495530498</v>
+        <v>11.87389130365499</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.01316545589427</v>
+        <v>16.90223749473869</v>
       </c>
       <c r="F24">
-        <v>28.29305350012629</v>
+        <v>37.59771030469665</v>
       </c>
       <c r="G24">
-        <v>21.96227513547838</v>
+        <v>30.95339331172126</v>
       </c>
       <c r="H24">
-        <v>8.721811585085597</v>
+        <v>14.90343076107269</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.503575506824199</v>
+        <v>7.90697922257422</v>
       </c>
       <c r="K24">
-        <v>12.49400606825804</v>
+        <v>9.168843143600307</v>
       </c>
       <c r="L24">
-        <v>9.409954758833287</v>
+        <v>12.55024057094127</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.01680607991787</v>
+        <v>19.1206402361068</v>
       </c>
       <c r="O24">
-        <v>14.21986404855372</v>
+        <v>22.96694602811921</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.21087333878911</v>
+        <v>13.44839562435748</v>
       </c>
       <c r="C25">
-        <v>7.508522308068946</v>
+        <v>11.93238995731016</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.51302031508215</v>
+        <v>16.87649346842417</v>
       </c>
       <c r="F25">
-        <v>27.12280058809106</v>
+        <v>37.56990455721503</v>
       </c>
       <c r="G25">
-        <v>21.58008817754309</v>
+        <v>31.08777451724202</v>
       </c>
       <c r="H25">
-        <v>8.835355195895648</v>
+        <v>14.97736536335896</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.430083588591743</v>
+        <v>7.888389131748314</v>
       </c>
       <c r="K25">
-        <v>11.48754841046562</v>
+        <v>8.83819634894896</v>
       </c>
       <c r="L25">
-        <v>8.896830078117368</v>
+        <v>12.49060709620025</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.33690616930487</v>
+        <v>19.21451707264341</v>
       </c>
       <c r="O25">
-        <v>14.28241391437221</v>
+        <v>23.08864994572665</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_159/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_159/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.1020553966038</v>
+        <v>13.92782148833142</v>
       </c>
       <c r="C2">
-        <v>11.97891613822523</v>
+        <v>7.63838719730319</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>16.86610535988619</v>
+        <v>11.14991264569726</v>
       </c>
       <c r="F2">
-        <v>37.57566155749477</v>
+        <v>26.29807597754994</v>
       </c>
       <c r="G2">
-        <v>31.21283244510076</v>
+        <v>21.37780970998994</v>
       </c>
       <c r="H2">
-        <v>15.03816081369865</v>
+        <v>8.934965194079128</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.874477370322277</v>
+        <v>5.375393799889408</v>
       </c>
       <c r="K2">
-        <v>8.589507243371235</v>
+        <v>10.68517275051431</v>
       </c>
       <c r="L2">
-        <v>12.45215293674379</v>
+        <v>8.510960676111329</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>19.28880467906017</v>
+        <v>12.58072771270143</v>
       </c>
       <c r="O2">
-        <v>23.19134679964884</v>
+        <v>14.36653045399529</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.86603731740907</v>
+        <v>13.06397650289432</v>
       </c>
       <c r="C3">
-        <v>12.0126186248821</v>
+        <v>7.730138655609705</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>16.86445353970958</v>
+        <v>10.90835454856084</v>
       </c>
       <c r="F3">
-        <v>37.59597018204517</v>
+        <v>25.76455592922874</v>
       </c>
       <c r="G3">
-        <v>31.31377107261725</v>
+        <v>21.28699290267559</v>
       </c>
       <c r="H3">
-        <v>15.08333806467516</v>
+        <v>9.011777664714694</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.864912761074475</v>
+        <v>5.337999511566925</v>
       </c>
       <c r="K3">
-        <v>8.418696921009069</v>
+        <v>10.1037542297297</v>
       </c>
       <c r="L3">
-        <v>12.42957505037062</v>
+        <v>8.245990817335574</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>19.34239775978782</v>
+        <v>12.75131775164439</v>
       </c>
       <c r="O3">
-        <v>23.2690996495586</v>
+        <v>14.44530430655496</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.72097775379347</v>
+        <v>12.50628602847317</v>
       </c>
       <c r="C4">
-        <v>12.03438854475512</v>
+        <v>7.788354253154495</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>16.8661099469756</v>
+        <v>10.76272603539962</v>
       </c>
       <c r="F4">
-        <v>37.6165401934628</v>
+        <v>25.45026472754918</v>
       </c>
       <c r="G4">
-        <v>31.38369401309318</v>
+        <v>21.25289999854309</v>
       </c>
       <c r="H4">
-        <v>15.11304127174312</v>
+        <v>9.063322659351408</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.858973889705817</v>
+        <v>5.314886817052327</v>
       </c>
       <c r="K4">
-        <v>8.313054386460829</v>
+        <v>9.728521877334366</v>
       </c>
       <c r="L4">
-        <v>12.417455128145</v>
+        <v>8.082187725929007</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>19.37691414553237</v>
+        <v>12.85878697388549</v>
       </c>
       <c r="O4">
-        <v>23.32085908786378</v>
+        <v>14.50377205853765</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.66190613727701</v>
+        <v>12.27226864282711</v>
       </c>
       <c r="C5">
-        <v>12.04353140158601</v>
+        <v>7.812555085210304</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16.8674583619831</v>
+        <v>10.70412770352177</v>
       </c>
       <c r="F5">
-        <v>37.62696028808472</v>
+        <v>25.32564012087378</v>
       </c>
       <c r="G5">
-        <v>31.41418054170913</v>
+        <v>21.24427288690563</v>
       </c>
       <c r="H5">
-        <v>15.12563991759136</v>
+        <v>9.085400183202573</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.856537323947144</v>
+        <v>5.305431609779527</v>
       </c>
       <c r="K5">
-        <v>8.269868043485086</v>
+        <v>9.571091646106117</v>
       </c>
       <c r="L5">
-        <v>12.41295814876736</v>
+        <v>8.015255167558429</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>19.39138580378537</v>
+        <v>12.9032792468353</v>
       </c>
       <c r="O5">
-        <v>23.3429615232065</v>
+        <v>14.53004570829403</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.65210212336976</v>
+        <v>12.23300605881553</v>
       </c>
       <c r="C6">
-        <v>12.04506598237294</v>
+        <v>7.816602593891463</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16.86772298720618</v>
+        <v>10.69444462218146</v>
       </c>
       <c r="F6">
-        <v>37.62881360947173</v>
+        <v>25.30515775464184</v>
       </c>
       <c r="G6">
-        <v>31.4193629654603</v>
+        <v>21.24315287043258</v>
       </c>
       <c r="H6">
-        <v>15.12776178346603</v>
+        <v>9.089130090727052</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.856131747930248</v>
+        <v>5.303859419823594</v>
       </c>
       <c r="K6">
-        <v>8.262690429207126</v>
+        <v>9.544679752922075</v>
       </c>
       <c r="L6">
-        <v>12.41223822615766</v>
+        <v>8.004133083835219</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>19.39381336243606</v>
+        <v>12.91070964375326</v>
       </c>
       <c r="O6">
-        <v>23.34669260416739</v>
+        <v>14.53455360611566</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.72018082275552</v>
+        <v>12.50315717050789</v>
       </c>
       <c r="C7">
-        <v>12.03451074847277</v>
+        <v>7.788678694334618</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>16.86612540326587</v>
+        <v>10.76193264289719</v>
       </c>
       <c r="F7">
-        <v>37.61667247184617</v>
+        <v>25.44856988433587</v>
       </c>
       <c r="G7">
-        <v>31.38409710594647</v>
+        <v>21.25276257754101</v>
       </c>
       <c r="H7">
-        <v>15.11320917930933</v>
+        <v>9.063616099494308</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.858941095568658</v>
+        <v>5.31475944672174</v>
       </c>
       <c r="K7">
-        <v>8.312472436415595</v>
+        <v>9.726416919524777</v>
       </c>
       <c r="L7">
-        <v>12.41739268604309</v>
+        <v>8.081285651069189</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>19.37710767023619</v>
+        <v>12.85938417141646</v>
       </c>
       <c r="O7">
-        <v>23.32115308012051</v>
+        <v>14.5041166040779</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.02075217010212</v>
+        <v>13.63568628672871</v>
       </c>
       <c r="C8">
-        <v>11.99031379197572</v>
+        <v>7.66963587218919</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>16.86498271507065</v>
+        <v>11.06610749306669</v>
       </c>
       <c r="F8">
-        <v>37.58098342087379</v>
+        <v>26.11142780724526</v>
       </c>
       <c r="G8">
-        <v>31.24598346491044</v>
+        <v>21.34189212792915</v>
       </c>
       <c r="H8">
-        <v>15.05333052377948</v>
+        <v>8.960522531206564</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.871193350128373</v>
+        <v>5.362532931528785</v>
       </c>
       <c r="K8">
-        <v>8.53080358147357</v>
+        <v>10.48851991512765</v>
       </c>
       <c r="L8">
-        <v>12.44400862405434</v>
+        <v>8.419886245519617</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>19.30695007772381</v>
+        <v>12.63898875709463</v>
       </c>
       <c r="O8">
-        <v>23.21732154893299</v>
+        <v>14.39153912722075</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.60571129122859</v>
+        <v>15.76494267214193</v>
       </c>
       <c r="C9">
-        <v>11.91215027848029</v>
+        <v>7.450883685460417</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>16.88384101783797</v>
+        <v>11.68086372945183</v>
       </c>
       <c r="F9">
-        <v>37.57520439235497</v>
+        <v>27.51158253686236</v>
       </c>
       <c r="G9">
-        <v>31.03843850543999</v>
+        <v>21.69616021336131</v>
       </c>
       <c r="H9">
-        <v>14.95147402660877</v>
+        <v>8.794525981638355</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.894686454367025</v>
+        <v>5.454933165720027</v>
       </c>
       <c r="K9">
-        <v>8.950514606132087</v>
+        <v>11.83615821814398</v>
       </c>
       <c r="L9">
-        <v>12.50985886622655</v>
+        <v>9.071118140627856</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>19.18209522421619</v>
+        <v>12.22785413465717</v>
       </c>
       <c r="O9">
-        <v>23.04561966945879</v>
+        <v>14.25516431522785</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.02846349737075</v>
+        <v>17.18442754709102</v>
       </c>
       <c r="C10">
-        <v>11.85986062376526</v>
+        <v>7.298797770037751</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>16.91042278403707</v>
+        <v>12.13967542551177</v>
       </c>
       <c r="F10">
-        <v>37.60996086684302</v>
+        <v>28.59423041397345</v>
       </c>
       <c r="G10">
-        <v>30.92485876887776</v>
+        <v>22.07518446118562</v>
       </c>
       <c r="H10">
-        <v>14.88610203180116</v>
+        <v>8.696684223972799</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.911611057529091</v>
+        <v>5.521943320296368</v>
       </c>
       <c r="K10">
-        <v>9.250709035670729</v>
+        <v>12.73482465675768</v>
       </c>
       <c r="L10">
-        <v>12.56631629077256</v>
+        <v>9.5370384346327</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>19.09804921144042</v>
+        <v>11.93780649287773</v>
       </c>
       <c r="O10">
-        <v>22.93895579108613</v>
+        <v>14.21239739421392</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.21840430683613</v>
+        <v>17.79517762162125</v>
       </c>
       <c r="C11">
-        <v>11.83717780861062</v>
+        <v>7.231411747306998</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>16.9252444004071</v>
+        <v>12.3491638478575</v>
       </c>
       <c r="F11">
-        <v>37.63419185010999</v>
+        <v>29.09694172478798</v>
       </c>
       <c r="G11">
-        <v>30.88169628948508</v>
+        <v>22.27508170630393</v>
       </c>
       <c r="H11">
-        <v>14.85841160752738</v>
+        <v>8.65790046882382</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.919235312133297</v>
+        <v>5.552218442526093</v>
       </c>
       <c r="K11">
-        <v>9.384910755366633</v>
+        <v>13.12360004842319</v>
       </c>
       <c r="L11">
-        <v>12.59369562545737</v>
+        <v>9.745425970453745</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>19.06146789716806</v>
+        <v>11.80827868125144</v>
       </c>
       <c r="O11">
-        <v>22.89466931959242</v>
+        <v>14.2067375336169</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.28992188930054</v>
+        <v>18.02147295533437</v>
       </c>
       <c r="C12">
-        <v>11.82874639930071</v>
+        <v>7.206147166418036</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>16.93124601754108</v>
+        <v>12.42854193824945</v>
       </c>
       <c r="F12">
-        <v>37.64457234323851</v>
+        <v>29.2886502422376</v>
       </c>
       <c r="G12">
-        <v>30.86657915888732</v>
+        <v>22.35484462715934</v>
       </c>
       <c r="H12">
-        <v>14.84822002338145</v>
+        <v>8.64408124695681</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.922111427024327</v>
+        <v>5.563651239293756</v>
       </c>
       <c r="K12">
-        <v>9.435344745461778</v>
+        <v>13.26793208598732</v>
       </c>
       <c r="L12">
-        <v>12.60430201924054</v>
+        <v>9.82376453247555</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>19.0478518865155</v>
+        <v>11.75956193872871</v>
       </c>
       <c r="O12">
-        <v>22.87850882413962</v>
+        <v>14.20668934182127</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.27453852606482</v>
+        <v>17.97295703229402</v>
       </c>
       <c r="C13">
-        <v>11.83055523415614</v>
+        <v>7.211577182427918</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>16.92993622005693</v>
+        <v>12.4114451829361</v>
       </c>
       <c r="F13">
-        <v>37.64228324412127</v>
+        <v>29.24730458572687</v>
       </c>
       <c r="G13">
-        <v>30.86978024063549</v>
+        <v>22.33748374409698</v>
       </c>
       <c r="H13">
-        <v>14.85040188387469</v>
+        <v>8.647018157440712</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.921492498813048</v>
+        <v>5.561190421419091</v>
       </c>
       <c r="K13">
-        <v>9.424500723489434</v>
+        <v>13.23697613598304</v>
       </c>
       <c r="L13">
-        <v>12.60200722893517</v>
+        <v>9.806919307117786</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>19.05077383311512</v>
+        <v>11.77003940821511</v>
       </c>
       <c r="O13">
-        <v>22.88196214148125</v>
+        <v>14.20660475510484</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.22429667204786</v>
+        <v>17.81389465413614</v>
       </c>
       <c r="C14">
-        <v>11.83648098716469</v>
+        <v>7.229328176228503</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>16.92573038210654</v>
+        <v>12.35569367846944</v>
       </c>
       <c r="F14">
-        <v>37.6350217529119</v>
+        <v>29.11268748334095</v>
       </c>
       <c r="G14">
-        <v>30.88042796777149</v>
+        <v>22.28156175392015</v>
       </c>
       <c r="H14">
-        <v>14.85756724549053</v>
+        <v>8.656745908103176</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.919472154321309</v>
+        <v>5.553159671723419</v>
       </c>
       <c r="K14">
-        <v>9.389067966019324</v>
+        <v>13.13553224980507</v>
       </c>
       <c r="L14">
-        <v>12.59456347387411</v>
+        <v>9.751882742317955</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>19.06034296466055</v>
+        <v>11.80426414573746</v>
       </c>
       <c r="O14">
-        <v>22.89332755962658</v>
+        <v>14.20669093800005</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.1934668838276</v>
+        <v>17.71581692350598</v>
       </c>
       <c r="C15">
-        <v>11.84013124881861</v>
+        <v>7.24023395768441</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>16.9232047346193</v>
+        <v>12.32154894981499</v>
       </c>
       <c r="F15">
-        <v>37.63073057633108</v>
+        <v>29.03040187586506</v>
       </c>
       <c r="G15">
-        <v>30.88710999848353</v>
+        <v>22.24784060465204</v>
       </c>
       <c r="H15">
-        <v>14.86199453931926</v>
+        <v>8.662818744712753</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.918233191299727</v>
+        <v>5.548236420332776</v>
       </c>
       <c r="K15">
-        <v>9.367312882061048</v>
+        <v>13.0730186121829</v>
       </c>
       <c r="L15">
-        <v>12.59003484158472</v>
+        <v>9.718094921337222</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>19.0662351100019</v>
+        <v>11.8252706557805</v>
       </c>
       <c r="O15">
-        <v>22.90036864699037</v>
+        <v>14.20701989540328</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.01599681753669</v>
+        <v>17.14381374930963</v>
       </c>
       <c r="C16">
-        <v>11.86136515675519</v>
+        <v>7.303237322841888</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>16.90950878736424</v>
+        <v>12.1259950293466</v>
       </c>
       <c r="F16">
-        <v>37.60854625462562</v>
+        <v>28.56157160436514</v>
       </c>
       <c r="G16">
-        <v>30.92785108427379</v>
+        <v>22.06268380113326</v>
       </c>
       <c r="H16">
-        <v>14.88795284654005</v>
+        <v>8.699337743752332</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.91111126628358</v>
+        <v>5.519960425912183</v>
       </c>
       <c r="K16">
-        <v>9.241887170572683</v>
+        <v>12.70901331463335</v>
       </c>
       <c r="L16">
-        <v>12.5645606592986</v>
+        <v>9.523342743384186</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>19.10047303881956</v>
+        <v>11.94631880463952</v>
       </c>
       <c r="O16">
-        <v>22.94193531123967</v>
+        <v>14.21305435982646</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.90646790812417</v>
+        <v>16.78398258320693</v>
       </c>
       <c r="C17">
-        <v>11.87467375282711</v>
+        <v>7.342344579986301</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>16.90180344399165</v>
+        <v>12.00618155805524</v>
       </c>
       <c r="F17">
-        <v>37.59708949492999</v>
+        <v>28.2764829148187</v>
       </c>
       <c r="G17">
-        <v>30.95502621516085</v>
+        <v>21.95622041943353</v>
       </c>
       <c r="H17">
-        <v>14.90440168002091</v>
+        <v>8.723237807433488</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.90672284332366</v>
+        <v>5.502559407441681</v>
       </c>
       <c r="K17">
-        <v>9.164304788162982</v>
+        <v>12.48056905975011</v>
       </c>
       <c r="L17">
-        <v>12.54936375312732</v>
+        <v>9.402910335317577</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>19.12189923324851</v>
+        <v>12.0211863871415</v>
       </c>
       <c r="O17">
-        <v>22.96852047493083</v>
+        <v>14.22036834253743</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.84325042069785</v>
+        <v>16.57372175301564</v>
       </c>
       <c r="C18">
-        <v>11.88243245995933</v>
+        <v>7.365007678170548</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>16.89762866924857</v>
+        <v>11.93734416735015</v>
       </c>
       <c r="F18">
-        <v>37.591292835138</v>
+        <v>28.11347555456708</v>
       </c>
       <c r="G18">
-        <v>30.97145697023096</v>
+        <v>21.89756590553133</v>
       </c>
       <c r="H18">
-        <v>14.91405536147981</v>
+        <v>8.737520551802062</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.904191711050674</v>
+        <v>5.492531316072988</v>
       </c>
       <c r="K18">
-        <v>9.119462066167737</v>
+        <v>12.34728842339653</v>
       </c>
       <c r="L18">
-        <v>12.5407829314641</v>
+        <v>9.333308679187525</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>19.13437853047352</v>
+        <v>12.06447659040208</v>
       </c>
       <c r="O18">
-        <v>22.9842101743866</v>
+        <v>14.22586684587295</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.82181051793656</v>
+        <v>16.50196361187513</v>
       </c>
       <c r="C19">
-        <v>11.88507729987271</v>
+        <v>7.372710317534365</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>16.89625942732267</v>
+        <v>11.91405204483577</v>
       </c>
       <c r="F19">
-        <v>37.58946654607057</v>
+        <v>28.05845427120303</v>
       </c>
       <c r="G19">
-        <v>30.977157456723</v>
+        <v>21.87814592406443</v>
       </c>
       <c r="H19">
-        <v>14.91735704500529</v>
+        <v>8.742447211879863</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.903333514145981</v>
+        <v>5.48913268595959</v>
       </c>
       <c r="K19">
-        <v>9.104242865339019</v>
+        <v>12.30183840720001</v>
       </c>
       <c r="L19">
-        <v>12.53790526343276</v>
+        <v>9.309687702293164</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>19.13863054586296</v>
+        <v>12.07917357335154</v>
       </c>
       <c r="O19">
-        <v>22.9895908758499</v>
+        <v>14.22794702340245</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.91815065310693</v>
+        <v>16.82262795007485</v>
       </c>
       <c r="C20">
-        <v>11.87324627604948</v>
+        <v>7.338164028881512</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>16.90259710287861</v>
+        <v>12.01892848751633</v>
       </c>
       <c r="F20">
-        <v>37.59822705823544</v>
+        <v>28.30673182758331</v>
       </c>
       <c r="G20">
-        <v>30.95205051017253</v>
+        <v>21.9672856836229</v>
       </c>
       <c r="H20">
-        <v>14.90263072693361</v>
+        <v>8.720637813685272</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.907190727651743</v>
+        <v>5.504413805547046</v>
       </c>
       <c r="K20">
-        <v>9.172586614690967</v>
+        <v>12.50508256766004</v>
       </c>
       <c r="L20">
-        <v>12.5509649657678</v>
+        <v>9.415765411316181</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>19.11960228988113</v>
+        <v>12.01319307784655</v>
       </c>
       <c r="O20">
-        <v>22.9656491778772</v>
+        <v>14.21945526873052</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.23906554257558</v>
+        <v>17.86074996781084</v>
       </c>
       <c r="C21">
-        <v>11.83473616494982</v>
+        <v>7.224107456844833</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>16.92695521079035</v>
+        <v>12.37206837542154</v>
       </c>
       <c r="F21">
-        <v>37.63712198572829</v>
+        <v>29.15219231329512</v>
       </c>
       <c r="G21">
-        <v>30.87726712298825</v>
+        <v>22.29787620344919</v>
       </c>
       <c r="H21">
-        <v>14.85545462326</v>
+        <v>8.653864727686736</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.920065879812934</v>
+        <v>5.555519372921172</v>
       </c>
       <c r="K21">
-        <v>9.399486236025654</v>
+        <v>13.1654072098512</v>
       </c>
       <c r="L21">
-        <v>12.59674345949117</v>
+        <v>9.768064321853437</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>19.05752586678686</v>
+        <v>11.79420260374324</v>
       </c>
       <c r="O21">
-        <v>22.88997270411489</v>
+        <v>14.20660787041724</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.44638978576598</v>
+        <v>18.51020396258344</v>
       </c>
       <c r="C22">
-        <v>11.81048868694463</v>
+        <v>7.151037124538413</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>16.94514016777044</v>
+        <v>12.60312829230361</v>
       </c>
       <c r="F22">
-        <v>37.66956072428206</v>
+        <v>29.7125231740693</v>
       </c>
       <c r="G22">
-        <v>30.83554879553051</v>
+        <v>22.53767954407533</v>
       </c>
       <c r="H22">
-        <v>14.82633689203727</v>
+        <v>8.615302590441813</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.928416148731217</v>
+        <v>5.588734052100843</v>
       </c>
       <c r="K22">
-        <v>9.545513136534296</v>
+        <v>13.58013038874553</v>
       </c>
       <c r="L22">
-        <v>12.62804938353793</v>
+        <v>9.994947707895044</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>19.01833362818649</v>
+        <v>11.65301127523353</v>
       </c>
       <c r="O22">
-        <v>22.84406865627592</v>
+        <v>14.21047553590481</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.33597914426016</v>
+        <v>18.16621733606419</v>
       </c>
       <c r="C23">
-        <v>11.8233459622882</v>
+        <v>7.189903313324367</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>16.93522844669732</v>
+        <v>12.47980238955225</v>
       </c>
       <c r="F23">
-        <v>37.65160761373691</v>
+        <v>29.41279218715949</v>
       </c>
       <c r="G23">
-        <v>30.85715842763381</v>
+        <v>22.40748544585756</v>
       </c>
       <c r="H23">
-        <v>14.84172077518021</v>
+        <v>8.63540402670259</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.92396543301874</v>
+        <v>5.571024328908499</v>
       </c>
       <c r="K23">
-        <v>9.467797593326791</v>
+        <v>13.36032640853664</v>
       </c>
       <c r="L23">
-        <v>12.61121580182077</v>
+        <v>9.874181767943343</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>19.0391254651228</v>
+        <v>11.72819602204376</v>
       </c>
       <c r="O23">
-        <v>22.86824298556821</v>
+        <v>14.20725201201996</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.91286965091431</v>
+        <v>16.80516693960289</v>
       </c>
       <c r="C24">
-        <v>11.87389130365499</v>
+        <v>7.340053495530498</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>16.90223749473869</v>
+        <v>12.01316545589437</v>
       </c>
       <c r="F24">
-        <v>37.59771030469665</v>
+        <v>28.29305350012628</v>
       </c>
       <c r="G24">
-        <v>30.95339331172126</v>
+        <v>21.96227513547825</v>
       </c>
       <c r="H24">
-        <v>14.90343076107269</v>
+        <v>8.721811585085481</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.90697922257422</v>
+        <v>5.503575506824233</v>
       </c>
       <c r="K24">
-        <v>9.168843143600307</v>
+        <v>12.49400606825807</v>
       </c>
       <c r="L24">
-        <v>12.55024057094127</v>
+        <v>9.409954758833324</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>19.1206402361068</v>
+        <v>12.0168060799178</v>
       </c>
       <c r="O24">
-        <v>22.96694602811921</v>
+        <v>14.21986404855361</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.44839562435748</v>
+        <v>15.21087333878914</v>
       </c>
       <c r="C25">
-        <v>11.93238995731016</v>
+        <v>7.508522308068946</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>16.87649346842417</v>
+        <v>11.51302031508217</v>
       </c>
       <c r="F25">
-        <v>37.56990455721503</v>
+        <v>27.12280058809102</v>
       </c>
       <c r="G25">
-        <v>31.08777451724202</v>
+        <v>21.58008817754309</v>
       </c>
       <c r="H25">
-        <v>14.97736536335896</v>
+        <v>8.835355195895591</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.888389131748314</v>
+        <v>5.430083588591711</v>
       </c>
       <c r="K25">
-        <v>8.83819634894896</v>
+        <v>11.48754841046565</v>
       </c>
       <c r="L25">
-        <v>12.49060709620025</v>
+        <v>8.89683007811734</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.21451707264341</v>
+        <v>12.33690616930487</v>
       </c>
       <c r="O25">
-        <v>23.08864994572665</v>
+        <v>14.28241391437216</v>
       </c>
     </row>
   </sheetData>
